--- a/Doc/Relational Schema.xlsx
+++ b/Doc/Relational Schema.xlsx
@@ -438,8 +438,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -449,7 +449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="285750" y="2095500"/>
-          <a:ext cx="2562225" cy="647700"/>
+          <a:ext cx="2562225" cy="762000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -462,6 +462,22 @@
             <a:gd name="connsiteY2" fmla="*/ 647700 h 647700"/>
             <a:gd name="connsiteX3" fmla="*/ 0 w 2562225"/>
             <a:gd name="connsiteY3" fmla="*/ 542925 h 647700"/>
+            <a:gd name="connsiteX0" fmla="*/ 2562225 w 2562225"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 762000"/>
+            <a:gd name="connsiteX1" fmla="*/ 2562225 w 2562225"/>
+            <a:gd name="connsiteY1" fmla="*/ 762000 h 762000"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 2562225"/>
+            <a:gd name="connsiteY2" fmla="*/ 647700 h 762000"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 2562225"/>
+            <a:gd name="connsiteY3" fmla="*/ 542925 h 762000"/>
+            <a:gd name="connsiteX0" fmla="*/ 2562225 w 2562225"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 762000"/>
+            <a:gd name="connsiteX1" fmla="*/ 2562225 w 2562225"/>
+            <a:gd name="connsiteY1" fmla="*/ 762000 h 762000"/>
+            <a:gd name="connsiteX2" fmla="*/ 9525 w 2562225"/>
+            <a:gd name="connsiteY2" fmla="*/ 752475 h 762000"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 2562225"/>
+            <a:gd name="connsiteY3" fmla="*/ 542925 h 762000"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -480,15 +496,15 @@
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="2562225" h="647700">
+            <a:path w="2562225" h="762000">
               <a:moveTo>
                 <a:pt x="2562225" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2562225" y="647700"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="647700"/>
+                <a:pt x="2562225" y="762000"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="9525" y="752475"/>
               </a:lnTo>
               <a:lnTo>
                 <a:pt x="0" y="542925"/>
@@ -740,8 +756,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -756,8 +772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2181225" y="2705100"/>
-          <a:ext cx="1504950" cy="676275"/>
+          <a:off x="2181225" y="2857500"/>
+          <a:ext cx="1504950" cy="523875"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -772,6 +788,26 @@
             <a:gd name="connsiteY3" fmla="*/ 0 h 676275"/>
             <a:gd name="connsiteX4" fmla="*/ 676275 w 1504950"/>
             <a:gd name="connsiteY4" fmla="*/ 38100 h 676275"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1504950"/>
+            <a:gd name="connsiteY0" fmla="*/ 542925 h 676275"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 1504950"/>
+            <a:gd name="connsiteY1" fmla="*/ 676275 h 676275"/>
+            <a:gd name="connsiteX2" fmla="*/ 1504950 w 1504950"/>
+            <a:gd name="connsiteY2" fmla="*/ 676275 h 676275"/>
+            <a:gd name="connsiteX3" fmla="*/ 1504950 w 1504950"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 676275"/>
+            <a:gd name="connsiteX4" fmla="*/ 647700 w 1504950"/>
+            <a:gd name="connsiteY4" fmla="*/ 161925 h 676275"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1504950"/>
+            <a:gd name="connsiteY0" fmla="*/ 390525 h 523875"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 1504950"/>
+            <a:gd name="connsiteY1" fmla="*/ 523875 h 523875"/>
+            <a:gd name="connsiteX2" fmla="*/ 1504950 w 1504950"/>
+            <a:gd name="connsiteY2" fmla="*/ 523875 h 523875"/>
+            <a:gd name="connsiteX3" fmla="*/ 1504950 w 1504950"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 523875"/>
+            <a:gd name="connsiteX4" fmla="*/ 647700 w 1504950"/>
+            <a:gd name="connsiteY4" fmla="*/ 9525 h 523875"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -793,22 +829,24 @@
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="1504950" h="676275">
+            <a:path w="1504950" h="523875">
               <a:moveTo>
-                <a:pt x="0" y="542925"/>
+                <a:pt x="0" y="390525"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="676275"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1504950" y="676275"/>
+                <a:pt x="0" y="523875"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1504950" y="523875"/>
               </a:lnTo>
               <a:lnTo>
                 <a:pt x="1504950" y="0"/>
               </a:lnTo>
-              <a:lnTo>
-                <a:pt x="676275" y="38100"/>
-              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1228725" y="12700"/>
+                <a:pt x="923925" y="-3175"/>
+                <a:pt x="647700" y="9525"/>
+              </a:cubicBezTo>
             </a:path>
           </a:pathLst>
         </a:custGeom>
@@ -852,13 +890,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>178147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -867,8 +905,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1428750" y="2238375"/>
-          <a:ext cx="2628900" cy="2352675"/>
+          <a:off x="1428750" y="2273647"/>
+          <a:ext cx="2628900" cy="2317404"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -883,6 +921,16 @@
             <a:gd name="connsiteY3" fmla="*/ 0 h 2352675"/>
             <a:gd name="connsiteX4" fmla="*/ 2114550 w 2628900"/>
             <a:gd name="connsiteY4" fmla="*/ 38100 h 2352675"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2628900"/>
+            <a:gd name="connsiteY0" fmla="*/ 2098329 h 2317404"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 2628900"/>
+            <a:gd name="connsiteY1" fmla="*/ 2317404 h 2317404"/>
+            <a:gd name="connsiteX2" fmla="*/ 2628900 w 2628900"/>
+            <a:gd name="connsiteY2" fmla="*/ 2317404 h 2317404"/>
+            <a:gd name="connsiteX3" fmla="*/ 2628900 w 2628900"/>
+            <a:gd name="connsiteY3" fmla="*/ 12354 h 2317404"/>
+            <a:gd name="connsiteX4" fmla="*/ 2114550 w 2628900"/>
+            <a:gd name="connsiteY4" fmla="*/ 2829 h 2317404"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -904,22 +952,24 @@
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="2628900" h="2352675">
+            <a:path w="2628900" h="2317404">
               <a:moveTo>
-                <a:pt x="0" y="2133600"/>
+                <a:pt x="0" y="2098329"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2352675"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2628900" y="2352675"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2628900" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2114550" y="38100"/>
-              </a:lnTo>
+                <a:pt x="0" y="2317404"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2628900" y="2317404"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2628900" y="12354"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="2457450" y="25054"/>
+                <a:pt x="2286000" y="-9871"/>
+                <a:pt x="2114550" y="2829"/>
+              </a:cubicBezTo>
             </a:path>
           </a:pathLst>
         </a:custGeom>
@@ -1370,7 +1420,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Doc/Relational Schema.xlsx
+++ b/Doc/Relational Schema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>PLAYER</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -1088,6 +1091,125 @@
               </a:lnTo>
               <a:lnTo>
                 <a:pt x="0" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Freeform 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="114300"/>
+          <a:ext cx="4533900" cy="4695825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4533900"/>
+            <a:gd name="connsiteY0" fmla="*/ 4267200 h 4695825"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 4533900"/>
+            <a:gd name="connsiteY1" fmla="*/ 4695825 h 4695825"/>
+            <a:gd name="connsiteX2" fmla="*/ 4533900 w 4533900"/>
+            <a:gd name="connsiteY2" fmla="*/ 4695825 h 4695825"/>
+            <a:gd name="connsiteX3" fmla="*/ 4533900 w 4533900"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 4695825"/>
+            <a:gd name="connsiteX4" fmla="*/ 266700 w 4533900"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 4695825"/>
+            <a:gd name="connsiteX5" fmla="*/ 266700 w 4533900"/>
+            <a:gd name="connsiteY5" fmla="*/ 95250 h 4695825"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="4533900" h="4695825">
+              <a:moveTo>
+                <a:pt x="0" y="4267200"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="4695825"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4533900" y="4695825"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4533900" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="266700" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="266700" y="95250"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1420,7 +1542,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,7 +1657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1549,12 +1671,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -1562,12 +1684,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1579,6 +1701,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Relational Schema.xlsx
+++ b/Doc/Relational Schema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>PLAYER</t>
   </si>
@@ -60,9 +60,6 @@
     <t>CHARACTER</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>GAME</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>MID</t>
-  </si>
-  <si>
-    <t>Possible_colors</t>
   </si>
   <si>
     <t>Description</t>
@@ -336,8 +330,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -349,7 +343,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="238125" y="1533525"/>
-          <a:ext cx="1847850" cy="381000"/>
+          <a:ext cx="1104900" cy="381000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -434,13 +428,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>285751</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -451,8 +445,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="2095500"/>
-          <a:ext cx="2562225" cy="762000"/>
+          <a:off x="285751" y="2095500"/>
+          <a:ext cx="1924050" cy="762000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -757,143 +751,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Freeform 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2181225" y="2857500"/>
-          <a:ext cx="1504950" cy="523875"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 1504950"/>
-            <a:gd name="connsiteY0" fmla="*/ 542925 h 676275"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 1504950"/>
-            <a:gd name="connsiteY1" fmla="*/ 676275 h 676275"/>
-            <a:gd name="connsiteX2" fmla="*/ 1504950 w 1504950"/>
-            <a:gd name="connsiteY2" fmla="*/ 676275 h 676275"/>
-            <a:gd name="connsiteX3" fmla="*/ 1504950 w 1504950"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 676275"/>
-            <a:gd name="connsiteX4" fmla="*/ 676275 w 1504950"/>
-            <a:gd name="connsiteY4" fmla="*/ 38100 h 676275"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 1504950"/>
-            <a:gd name="connsiteY0" fmla="*/ 542925 h 676275"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 1504950"/>
-            <a:gd name="connsiteY1" fmla="*/ 676275 h 676275"/>
-            <a:gd name="connsiteX2" fmla="*/ 1504950 w 1504950"/>
-            <a:gd name="connsiteY2" fmla="*/ 676275 h 676275"/>
-            <a:gd name="connsiteX3" fmla="*/ 1504950 w 1504950"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 676275"/>
-            <a:gd name="connsiteX4" fmla="*/ 647700 w 1504950"/>
-            <a:gd name="connsiteY4" fmla="*/ 161925 h 676275"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 1504950"/>
-            <a:gd name="connsiteY0" fmla="*/ 390525 h 523875"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 1504950"/>
-            <a:gd name="connsiteY1" fmla="*/ 523875 h 523875"/>
-            <a:gd name="connsiteX2" fmla="*/ 1504950 w 1504950"/>
-            <a:gd name="connsiteY2" fmla="*/ 523875 h 523875"/>
-            <a:gd name="connsiteX3" fmla="*/ 1504950 w 1504950"/>
-            <a:gd name="connsiteY3" fmla="*/ 0 h 523875"/>
-            <a:gd name="connsiteX4" fmla="*/ 647700 w 1504950"/>
-            <a:gd name="connsiteY4" fmla="*/ 9525 h 523875"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="1504950" h="523875">
-              <a:moveTo>
-                <a:pt x="0" y="390525"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="523875"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1504950" y="523875"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1504950" y="0"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="1228725" y="12700"/>
-                <a:pt x="923925" y="-3175"/>
-                <a:pt x="647700" y="9525"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>178147</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -908,8 +769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1428750" y="2273647"/>
-          <a:ext cx="2628900" cy="2317404"/>
+          <a:off x="1428750" y="2247900"/>
+          <a:ext cx="2628900" cy="2343151"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1220,6 +1081,92 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Freeform 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="2857500"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 0"/>
+            <a:gd name="connsiteY0" fmla="*/ 190500 h 190500"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 0"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 190500"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path h="190500">
+              <a:moveTo>
+                <a:pt x="0" y="190500"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1542,7 +1489,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1518,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1624,21 +1571,18 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>30</v>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1646,68 +1590,65 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>31</v>
+      <c r="D23" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
